--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17232" windowHeight="7416"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="7418"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <definedName name="_Toc319070473" localSheetId="0">Sheet1!$A$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>列名</t>
   </si>
@@ -255,11 +254,37 @@
     <t>creator</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>created_date</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最終作成者</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サクセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>last_user</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,32 +509,32 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,23 +629,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -656,23 +664,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -849,33 +840,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" customWidth="1"/>
+    <col min="3" max="3" width="8.53125" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" customWidth="1"/>
+    <col min="5" max="5" width="8.86328125" customWidth="1"/>
+    <col min="6" max="6" width="15.53125" customWidth="1"/>
+    <col min="7" max="7" width="7.19921875" customWidth="1"/>
+    <col min="8" max="8" width="17.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -901,11 +892,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:8" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -913,7 +904,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
@@ -933,7 +924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
@@ -953,7 +944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>51</v>
       </c>
@@ -961,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -973,7 +964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>50</v>
       </c>
@@ -993,9 +984,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -1011,299 +1002,316 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C10" s="20">
         <v>4</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:8" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" customFormat="1" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C14" s="5">
         <v>4</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="15" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
         <v>4</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="17" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C17" s="20">
         <v>4</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="23" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="18" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="5">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4000</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="21" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" customFormat="1" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="5">
         <v>4</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:8" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+    <row r="23" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="3">
-        <v>20</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>20</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:8" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="26" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C27" s="3">
         <v>20</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:8" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:B3"/>

--- a/Database/Database.xlsx
+++ b/Database/Database.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="7418"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17232" windowHeight="7416"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>creator</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>content</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -280,11 +276,15 @@
     <t>last_user</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>commenter</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -629,6 +629,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -664,6 +681,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -843,30 +877,30 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.46484375" customWidth="1"/>
-    <col min="3" max="3" width="8.53125" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" customWidth="1"/>
-    <col min="5" max="5" width="8.86328125" customWidth="1"/>
-    <col min="6" max="6" width="15.53125" customWidth="1"/>
-    <col min="7" max="7" width="7.19921875" customWidth="1"/>
-    <col min="8" max="8" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -892,7 +926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>20</v>
       </c>
@@ -904,7 +938,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>30</v>
       </c>
@@ -924,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
@@ -944,9 +978,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -964,9 +998,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
@@ -984,9 +1018,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
@@ -1002,29 +1036,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="5">
         <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>22</v>
       </c>
@@ -1042,9 +1076,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
@@ -1060,7 +1094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="9"/>
@@ -1070,9 +1104,9 @@
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1082,9 +1116,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -1099,12 +1133,12 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
@@ -1113,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1124,7 +1158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>33</v>
       </c>
@@ -1139,10 +1173,10 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>24</v>
       </c>
@@ -1160,9 +1194,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>11</v>
@@ -1171,20 +1205,20 @@
         <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>11</v>
@@ -1202,9 +1236,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1214,7 +1248,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>25</v>
       </c>
@@ -1231,10 +1265,10 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>26</v>
       </c>
@@ -1249,14 +1283,14 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1273,10 +1307,10 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
@@ -1288,7 +1322,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="1:8" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>28</v>
       </c>
@@ -1303,7 +1337,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>21</v>
